--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value790.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value790.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.743791764988012</v>
+        <v>1.791586399078369</v>
       </c>
       <c r="B1">
-        <v>3.437456044551677</v>
+        <v>4.286983966827393</v>
       </c>
       <c r="C1">
-        <v>2.905732759331717</v>
+        <v>1.538731694221497</v>
       </c>
       <c r="D1">
-        <v>2.141437296936318</v>
+        <v>0.8616945147514343</v>
       </c>
       <c r="E1">
-        <v>1.243421549120605</v>
+        <v>0.4655308723449707</v>
       </c>
     </row>
   </sheetData>
